--- a/DRS/Content/DemoFiles/CustomersDemoImport.xlsx
+++ b/DRS/Content/DemoFiles/CustomersDemoImport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Description</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Erp</t>
   </si>
 </sst>
 </file>
@@ -62,11 +65,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -311,6 +317,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
